--- a/Template/Шаблон для загрузки исходящих писем в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки исходящих писем в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьма!$A$1:$P$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьма!$A$1:$P$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Содержание</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Итог</t>
-  </si>
-  <si>
-    <t>Подробности</t>
   </si>
 </sst>
 </file>
@@ -184,7 +181,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +202,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -288,9 +291,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -319,9 +319,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -354,6 +351,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,32 +719,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.42578125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="5.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.42578125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,61 +763,115 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:P3"/>
+  <autoFilter ref="A1:P6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -825,57 +894,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="3" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
